--- a/BillOfMaterials/P4_BOM.xlsx
+++ b/BillOfMaterials/P4_BOM.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
   <si>
     <t>PROTOTYPE[4]</t>
   </si>
@@ -36,9 +36,6 @@
     <t>DISTRIBUTER</t>
   </si>
   <si>
-    <t>UNIT</t>
-  </si>
-  <si>
     <t>QTY</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>SENSOR</t>
   </si>
   <si>
-    <t>BLUEFRUIT FEATHER M0 + SOCKETS</t>
-  </si>
-  <si>
     <t>CONTROLLER</t>
   </si>
   <si>
@@ -189,35 +183,99 @@
     <t>PRUSA MK3</t>
   </si>
   <si>
-    <t>CASE</t>
-  </si>
-  <si>
-    <t>ONE VARIO</t>
-  </si>
-  <si>
     <t>EACH</t>
   </si>
   <si>
-    <t>TEN VARIOS</t>
-  </si>
-  <si>
-    <t>REQUIRED</t>
-  </si>
-  <si>
     <t>NPN TRANSISTOR</t>
   </si>
   <si>
     <t>VERT HEADER</t>
+  </si>
+  <si>
+    <t>FEMALE HEADER SOCKETS 12 AND 16 PIN</t>
+  </si>
+  <si>
+    <t>BTG 150mAh LIPO BATTERY</t>
+  </si>
+  <si>
+    <t>BLUEFRUIT FEATHER M0</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>SHIPPING</t>
+  </si>
+  <si>
+    <t>ADAFRUIT SHIPPING</t>
+  </si>
+  <si>
+    <t>FREE SHIPPING WITH AMAZON PRIME</t>
+  </si>
+  <si>
+    <t>BATTERY</t>
+  </si>
+  <si>
+    <t>SOCKET</t>
+  </si>
+  <si>
+    <t>SEEED STUDIO SHIPPING</t>
+  </si>
+  <si>
+    <t>ASSUMING YOU HAVE YOUR OWN PRINTER</t>
+  </si>
+  <si>
+    <t>ESTIMATED DIGIKEY SHIPPING</t>
+  </si>
+  <si>
+    <t>ESTIMATED EBAY SHIPPING</t>
+  </si>
+  <si>
+    <t>SOLDER PASTE</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>CASE (THREE PIECES TOTAL)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>TOTAL PURCHASE</t>
+  </si>
+  <si>
+    <t>INCLUDED</t>
+  </si>
+  <si>
+    <t>DIVIDED PRICE</t>
+  </si>
+  <si>
+    <t>100 VARIOS</t>
+  </si>
+  <si>
+    <t>10 VARIOS</t>
+  </si>
+  <si>
+    <t>1 VARIO</t>
+  </si>
+  <si>
+    <t>EXTENDED PRICE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +407,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,7 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +767,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -726,30 +810,67 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="17" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="20" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="21" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="21" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="20" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="20" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="20" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="22" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="21" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -777,6 +898,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1103,812 +1225,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.875" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="3.125" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.75" customWidth="1"/>
+    <col min="11" max="11" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="2.75" customWidth="1"/>
+    <col min="16" max="16" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="34">
+        <v>1</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="35">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M6" s="34">
         <v>10</v>
       </c>
-      <c r="H6" s="6">
+      <c r="N6" s="1"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>0.88</v>
+      </c>
+      <c r="R6" s="34">
+        <v>100</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0.36</v>
+      </c>
+      <c r="I7" s="34">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M7" s="34">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="R7" s="34">
+        <v>100</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="35">
         <v>0.1</v>
       </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="5" t="s">
+      <c r="I8" s="34">
+        <v>1</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M8" s="34">
         <v>10</v>
       </c>
-      <c r="L6" s="6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="N8" s="1"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="35">
+        <v>3.1</v>
+      </c>
+      <c r="R8" s="34">
+        <v>100</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="34">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M9" s="34">
         <v>10</v>
       </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M7" s="5">
-        <v>10</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M8" s="5">
-        <v>10</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="N9" s="1"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>0.76</v>
+      </c>
+      <c r="R9" s="34">
+        <v>100</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1.9E-2</v>
-      </c>
-      <c r="M9" s="5">
-        <v>10</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="34">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M10" s="34">
+        <v>20</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="35">
+        <f>0.76*2</f>
+        <v>1.52</v>
+      </c>
+      <c r="R10" s="34">
+        <v>200</v>
+      </c>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5" t="s">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="35">
+        <v>3.6</v>
+      </c>
+      <c r="I11" s="34">
+        <v>1</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="35">
+        <v>3.4580000000000002</v>
+      </c>
+      <c r="M11" s="34">
         <v>10</v>
       </c>
-      <c r="H10" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="5" t="s">
+      <c r="N11" s="1"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>288.2</v>
+      </c>
+      <c r="R11" s="34">
+        <v>100</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="35">
+        <v>3.31</v>
+      </c>
+      <c r="I12" s="34">
+        <v>1</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="35">
+        <v>3.31</v>
+      </c>
+      <c r="M12" s="34">
         <v>10</v>
       </c>
-      <c r="L10" s="6">
-        <v>1.9E-2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>20</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5" t="s">
+      <c r="N12" s="1"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>2.81255*100</f>
+        <v>281.255</v>
+      </c>
+      <c r="R12" s="34">
+        <v>100</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0.12</v>
+      </c>
+      <c r="I13" s="34">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="35">
+        <v>0.106</v>
+      </c>
+      <c r="M13" s="34">
         <v>10</v>
       </c>
-      <c r="H11" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="5" t="s">
+      <c r="N13" s="1"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>5.75</v>
+      </c>
+      <c r="R13" s="34">
+        <v>100</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="I14" s="34">
+        <v>1</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="35">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="M14" s="34">
         <v>10</v>
       </c>
-      <c r="L11" s="6">
-        <v>3.4580000000000002</v>
-      </c>
-      <c r="M11" s="5">
-        <v>10</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="6">
-        <v>3.31</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="6">
-        <v>3.31</v>
-      </c>
-      <c r="M12" s="5">
-        <v>10</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0.106</v>
-      </c>
-      <c r="M13" s="5">
-        <v>10</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="N14" s="1"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="R14" s="34">
+        <v>100</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.44</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="M14" s="5">
-        <v>10</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="C15" s="7">
         <v>878980426</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="35">
+        <f>0.253*I15</f>
+        <v>2.5300000000000002</v>
+      </c>
+      <c r="I15" s="34">
+        <v>10</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="35">
+        <f>0.177*10</f>
+        <v>1.77</v>
+      </c>
+      <c r="M15" s="34">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="35">
+        <f>0.15162*700</f>
+        <v>106.134</v>
+      </c>
+      <c r="R15" s="34">
+        <v>700</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="35">
+        <v>1.53</v>
+      </c>
+      <c r="I16" s="34">
+        <v>1</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="35">
+        <v>1.367</v>
+      </c>
+      <c r="M16" s="34">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>112.6</v>
+      </c>
+      <c r="R16" s="34">
+        <v>100</v>
+      </c>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="37">
+        <v>3.69</v>
+      </c>
+      <c r="I17" s="33">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="37">
+        <f>3.69/M17</f>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="M17" s="33">
+        <v>10</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="37">
+        <f>3.69</f>
+        <v>3.69</v>
+      </c>
+      <c r="R17" s="33">
+        <v>100</v>
+      </c>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="17">
+        <v>5.58</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="17">
+        <f>55.8/M18</f>
+        <v>5.58</v>
+      </c>
+      <c r="M18" s="5">
+        <v>10</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="17">
+        <f>5.58*100</f>
+        <v>558</v>
+      </c>
+      <c r="R18" s="5">
+        <v>100</v>
+      </c>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="17">
+        <v>3.61</v>
+      </c>
+      <c r="I19" s="5">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="M19" s="5">
+        <v>10</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>36.1</v>
+      </c>
+      <c r="R19" s="5">
+        <v>100</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="17">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="17">
+        <f>187.52/M20</f>
+        <v>18.752000000000002</v>
+      </c>
+      <c r="M20" s="5">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="17">
+        <f>187.52*10</f>
+        <v>1875.2</v>
+      </c>
+      <c r="R20" s="5">
+        <v>100</v>
+      </c>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="C22" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="23">
+        <f>1.85+1.33</f>
+        <v>3.18</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="23">
+        <f>(1.85+10.46)/M22</f>
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="M22" s="20">
+        <v>10</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="23">
+        <f>(1.85*5+10*10.46)</f>
+        <v>113.85000000000001</v>
+      </c>
+      <c r="R22" s="20">
+        <v>100</v>
+      </c>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="15">
+        <v>29.95</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="15">
+        <v>26.96</v>
+      </c>
+      <c r="M23" s="11">
+        <v>10</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>2396</v>
+      </c>
+      <c r="R23" s="11">
+        <v>100</v>
+      </c>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="M24" s="11">
+        <v>10</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>76</v>
+      </c>
+      <c r="R24" s="11">
+        <v>100</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="C25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5" t="s">
+      <c r="D25" s="22">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="25">
+        <v>4.05</v>
+      </c>
+      <c r="I25" s="24">
+        <v>1</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="24">
         <v>10</v>
       </c>
-      <c r="H15" s="6">
-        <v>0.253</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" s="24">
+        <v>100</v>
+      </c>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="18">
+        <v>12.85</v>
+      </c>
+      <c r="I26" s="10">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="18">
+        <f>2*12.85/M26</f>
+        <v>2.57</v>
+      </c>
+      <c r="M26" s="10">
         <v>10</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="5" t="s">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="18">
+        <f>(12.85/5)*R26</f>
+        <v>257</v>
+      </c>
+      <c r="R26" s="10">
+        <v>100</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="C27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="22">
+        <v>1</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="26">
+        <v>5</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="26">
         <v>10</v>
       </c>
-      <c r="L15" s="6">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" s="26">
         <v>100</v>
       </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="5" t="s">
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I28" s="6">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="19">
+        <f>4.9/M28</f>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="M28" s="6">
         <v>10</v>
       </c>
-      <c r="H16" s="6">
-        <v>1.53</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="5" t="s">
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>41.59</v>
+      </c>
+      <c r="R28" s="6">
+        <v>100</v>
+      </c>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="C29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="22">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="29">
+        <v>10.85</v>
+      </c>
+      <c r="I29" s="30">
+        <v>5</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="29">
+        <f>(16.04-4.9)/M29</f>
+        <v>1.1139999999999999</v>
+      </c>
+      <c r="M29" s="30">
         <v>10</v>
       </c>
-      <c r="L16" s="6">
-        <v>1.367</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>17.55</v>
+      </c>
+      <c r="R29" s="30">
+        <v>100</v>
+      </c>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="4">
         <v>10</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R30" s="4">
+        <v>100</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="4">
         <v>10</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="M17" s="8">
-        <v>10</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="9">
-        <v>7.43</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="9">
-        <v>7.43</v>
-      </c>
-      <c r="M18" s="8">
-        <v>10</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="9">
-        <v>38.979999999999997</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="13">
-        <v>27.82</v>
-      </c>
-      <c r="M19" s="12">
-        <v>10</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="9">
-        <v>20.079999999999998</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="9">
-        <v>20.079999999999998</v>
-      </c>
-      <c r="M20" s="8">
-        <v>10</v>
-      </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="11">
-        <v>3.15</v>
-      </c>
-      <c r="I21" s="10">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="11">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="M21" s="10">
-        <v>10</v>
-      </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="C22" t="s">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="Q31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R31" s="4">
+        <v>100</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="C32" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="22">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" s="31"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" s="31"/>
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="41">
+        <f>H35</f>
+        <v>110.66</v>
+      </c>
+      <c r="I34" s="41"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="41">
+        <f>L35*10</f>
+        <v>691.42</v>
+      </c>
+      <c r="M34" s="41"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q34" s="41">
+        <f>SUM(Q5:Q33)</f>
+        <v>6229.4389999999994</v>
+      </c>
+      <c r="R34" s="41"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="3">
+        <f>SUM(H6:H33)</f>
+        <v>110.66</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="J35" s="1"/>
+      <c r="K35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="3">
+        <f>SUM(L6:L33)</f>
+        <v>69.141999999999996</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="4">
-        <v>80.013999999999996</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="4">
-        <v>66.557000000000002</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>Q34/100</f>
+        <v>62.294389999999993</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B2:M2"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="Q34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/BillOfMaterials/P4_BOM.xlsx
+++ b/BillOfMaterials/P4_BOM.xlsx
@@ -824,9 +824,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -866,6 +863,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="8" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,20 +1275,20 @@
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1319,47 +1319,47 @@
     </row>
     <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>76</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="12" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>76</v>
       </c>
       <c r="S4" s="1"/>
@@ -1400,34 +1400,34 @@
         <v>8</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="35">
+      <c r="G6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="34">
         <v>0.1</v>
       </c>
-      <c r="I6" s="34">
-        <v>1</v>
-      </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="35">
+      <c r="I6" s="33">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="34">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <v>10</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="35">
+      <c r="O6" s="35"/>
+      <c r="P6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="34">
         <v>0.88</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="33">
         <v>100</v>
       </c>
       <c r="S6" s="1"/>
@@ -1447,34 +1447,34 @@
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="35">
+      <c r="G7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34">
         <v>0.36</v>
       </c>
-      <c r="I7" s="34">
-        <v>1</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="35">
+      <c r="I7" s="33">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="34">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <v>10</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="35">
+      <c r="O7" s="35"/>
+      <c r="P7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="34">
         <v>19.739999999999998</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="33">
         <v>100</v>
       </c>
       <c r="S7" s="1"/>
@@ -1494,34 +1494,34 @@
         <v>15</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="35">
+      <c r="G8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="34">
         <v>0.1</v>
       </c>
-      <c r="I8" s="34">
-        <v>1</v>
-      </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="35">
+      <c r="I8" s="33">
+        <v>1</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <v>10</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="35">
+      <c r="O8" s="35"/>
+      <c r="P8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="34">
         <v>3.1</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="33">
         <v>100</v>
       </c>
       <c r="S8" s="1"/>
@@ -1541,34 +1541,34 @@
         <v>18</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="35">
+      <c r="G9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="34">
         <v>0.1</v>
       </c>
-      <c r="I9" s="34">
-        <v>1</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="35">
+      <c r="I9" s="33">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="34">
         <v>1.9E-2</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <v>10</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="35">
+      <c r="O9" s="35"/>
+      <c r="P9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="34">
         <v>0.76</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="33">
         <v>100</v>
       </c>
       <c r="S9" s="1"/>
@@ -1588,35 +1588,36 @@
         <v>21</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="34">
-        <v>1</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="35">
+      <c r="G10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="34">
+        <f>0.019*I10</f>
+        <v>0.19</v>
+      </c>
+      <c r="I10" s="33">
+        <v>10</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="34">
         <v>1.9E-2</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <v>20</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="35">
+      <c r="O10" s="35"/>
+      <c r="P10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="34">
         <f>0.76*2</f>
         <v>1.52</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="33">
         <v>200</v>
       </c>
       <c r="S10" s="1"/>
@@ -1636,34 +1637,34 @@
         <v>24</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="35">
+      <c r="G11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="34">
         <v>3.6</v>
       </c>
-      <c r="I11" s="34">
-        <v>1</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="35">
+      <c r="I11" s="33">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="34">
         <v>3.4580000000000002</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <v>10</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="35">
+      <c r="O11" s="35"/>
+      <c r="P11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="34">
         <v>288.2</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="33">
         <v>100</v>
       </c>
       <c r="S11" s="1"/>
@@ -1683,35 +1684,35 @@
         <v>27</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="35">
+      <c r="G12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="34">
         <v>3.31</v>
       </c>
-      <c r="I12" s="34">
-        <v>1</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="35">
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="34">
         <v>3.31</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <v>10</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="35">
+      <c r="O12" s="35"/>
+      <c r="P12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="34">
         <f>2.81255*100</f>
         <v>281.255</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="33">
         <v>100</v>
       </c>
       <c r="S12" s="1"/>
@@ -1731,34 +1732,34 @@
         <v>55</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="35">
+      <c r="G13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="34">
         <v>0.12</v>
       </c>
-      <c r="I13" s="34">
-        <v>1</v>
-      </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="35">
+      <c r="I13" s="33">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="34">
         <v>0.106</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <v>10</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="35">
+      <c r="O13" s="35"/>
+      <c r="P13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="34">
         <v>5.75</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="33">
         <v>100</v>
       </c>
       <c r="S13" s="1"/>
@@ -1778,34 +1779,34 @@
         <v>32</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="35">
+      <c r="G14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="34">
         <v>0.44</v>
       </c>
-      <c r="I14" s="34">
-        <v>1</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="35">
+      <c r="I14" s="33">
+        <v>1</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="34">
         <v>0.42399999999999999</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <v>10</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="35">
+      <c r="O14" s="35"/>
+      <c r="P14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="34">
         <v>34.520000000000003</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="33">
         <v>100</v>
       </c>
       <c r="S14" s="1"/>
@@ -1825,37 +1826,37 @@
         <v>56</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="35">
+      <c r="G15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="34">
         <f>0.253*I15</f>
         <v>2.5300000000000002</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>10</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="35">
+      <c r="J15" s="35"/>
+      <c r="K15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="34">
         <f>0.177*10</f>
         <v>1.77</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <v>100</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="35">
+      <c r="O15" s="35"/>
+      <c r="P15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="34">
         <f>0.15162*700</f>
         <v>106.134</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="33">
         <v>700</v>
       </c>
       <c r="S15" s="1"/>
@@ -1875,83 +1876,83 @@
         <v>36</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="35">
+      <c r="G16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="34">
         <v>1.53</v>
       </c>
-      <c r="I16" s="34">
-        <v>1</v>
-      </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="35">
+      <c r="I16" s="33">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="34">
         <v>1.367</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="33">
         <v>10</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="35">
+      <c r="O16" s="35"/>
+      <c r="P16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="34">
         <v>112.6</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="33">
         <v>100</v>
       </c>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="C17" s="22" t="s">
+    <row r="17" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>3.69</v>
       </c>
-      <c r="I17" s="33">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="33" t="s">
+      <c r="I17" s="32">
+        <v>1</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="36">
         <f>3.69/M17</f>
         <v>0.36899999999999999</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="32">
         <v>10</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="33" t="s">
+      <c r="N17" s="20"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="36">
         <f>3.69</f>
         <v>3.69</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="32">
         <v>100</v>
       </c>
-      <c r="S17" s="21"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1971,7 +1972,7 @@
       <c r="G18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>5.58</v>
       </c>
       <c r="I18" s="5">
@@ -1981,7 +1982,7 @@
       <c r="K18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="16">
         <f>55.8/M18</f>
         <v>5.58</v>
       </c>
@@ -1993,7 +1994,7 @@
       <c r="P18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="16">
         <f>5.58*100</f>
         <v>558</v>
       </c>
@@ -2020,7 +2021,7 @@
       <c r="G19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>3.61</v>
       </c>
       <c r="I19" s="5">
@@ -2030,7 +2031,7 @@
       <c r="K19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="16">
         <v>0.36099999999999999</v>
       </c>
       <c r="M19" s="5">
@@ -2041,7 +2042,7 @@
       <c r="P19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="16">
         <v>36.1</v>
       </c>
       <c r="R19" s="5">
@@ -2064,7 +2065,7 @@
       <c r="G20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>18.760000000000002</v>
       </c>
       <c r="I20" s="5">
@@ -2074,7 +2075,7 @@
       <c r="K20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="16">
         <f>187.52/M20</f>
         <v>18.752000000000002</v>
       </c>
@@ -2086,7 +2087,7 @@
       <c r="P20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="16">
         <f>187.52*10</f>
         <v>1875.2</v>
       </c>
@@ -2100,7 +2101,7 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>74</v>
       </c>
       <c r="E21" t="s">
@@ -2110,7 +2111,7 @@
       <c r="G21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I21" s="5"/>
@@ -2118,7 +2119,7 @@
       <c r="K21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="16" t="s">
         <v>71</v>
       </c>
       <c r="M21" s="5"/>
@@ -2127,58 +2128,58 @@
       <c r="P21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="16" t="s">
         <v>71</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="C22" s="22" t="s">
+    <row r="22" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <f>1.85+1.33</f>
         <v>3.18</v>
       </c>
-      <c r="I22" s="20">
-        <v>1</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="20" t="s">
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <f>(1.85+10.46)/M22</f>
         <v>1.2310000000000001</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="19">
         <v>10</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="20" t="s">
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="22">
         <f>(1.85*5+10*10.46)</f>
         <v>113.85000000000001</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="19">
         <v>100</v>
       </c>
-      <c r="S22" s="21"/>
+      <c r="S22" s="20"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -2192,34 +2193,34 @@
         <v>44</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>29.95</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>1</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <v>26.96</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
         <v>10</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="14">
         <v>2396</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="10">
         <v>100</v>
       </c>
       <c r="S23" s="1"/>
@@ -2236,81 +2237,81 @@
         <v>65</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>0.95</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>1</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="14">
         <v>0.86</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>10</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="14">
         <v>76</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="10">
         <v>100</v>
       </c>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="C25" s="22" t="s">
+    <row r="25" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="21">
+        <v>1</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="24" t="s">
+      <c r="F25" s="20"/>
+      <c r="G25" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <v>4.05</v>
       </c>
-      <c r="I25" s="24">
-        <v>1</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="24" t="s">
+      <c r="I25" s="23">
+        <v>1</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="23">
         <v>10</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="24" t="s">
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="23">
         <v>100</v>
       </c>
-      <c r="S25" s="21"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -2324,83 +2325,83 @@
         <v>64</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <v>12.85</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>5</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="17">
         <f>2*12.85/M26</f>
         <v>2.57</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <v>10</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="17">
         <f>(12.85/5)*R26</f>
         <v>257</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="9">
         <v>100</v>
       </c>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="C27" s="22" t="s">
+    <row r="27" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="C27" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="22">
-        <v>1</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="26" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>5</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="26" t="s">
+      <c r="J27" s="20"/>
+      <c r="K27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="25">
         <v>10</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="26" t="s">
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="R27" s="26">
+      <c r="R27" s="25">
         <v>100</v>
       </c>
-      <c r="S27" s="21"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -2417,7 +2418,7 @@
       <c r="G28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="18">
         <v>4.9000000000000004</v>
       </c>
       <c r="I28" s="6">
@@ -2427,7 +2428,7 @@
       <c r="K28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="18">
         <f>4.9/M28</f>
         <v>0.49000000000000005</v>
       </c>
@@ -2439,7 +2440,7 @@
       <c r="P28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="18">
         <v>41.59</v>
       </c>
       <c r="R28" s="6">
@@ -2447,50 +2448,50 @@
       </c>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="C29" s="22" t="s">
+    <row r="29" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="22">
-        <v>1</v>
-      </c>
-      <c r="E29" s="22" t="s">
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="28" t="s">
+      <c r="F29" s="20"/>
+      <c r="G29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <v>10.85</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="29">
         <v>5</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="28" t="s">
+      <c r="J29" s="20"/>
+      <c r="K29" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="28">
         <f>(16.04-4.9)/M29</f>
         <v>1.1139999999999999</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="29">
         <v>10</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="28" t="s">
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="29">
+      <c r="Q29" s="28">
         <v>17.55</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="29">
         <v>100</v>
       </c>
-      <c r="S29" s="21"/>
+      <c r="S29" s="20"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -2507,7 +2508,7 @@
       <c r="G30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I30" s="4">
@@ -2517,7 +2518,7 @@
       <c r="K30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="15" t="s">
         <v>71</v>
       </c>
       <c r="M30" s="4">
@@ -2528,7 +2529,7 @@
       <c r="P30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q30" s="16" t="s">
+      <c r="Q30" s="15" t="s">
         <v>71</v>
       </c>
       <c r="R30" s="4">
@@ -2551,7 +2552,7 @@
       <c r="G31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I31" s="4">
@@ -2561,7 +2562,7 @@
       <c r="K31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="15" t="s">
         <v>71</v>
       </c>
       <c r="M31" s="4">
@@ -2572,7 +2573,7 @@
       <c r="P31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q31" s="16" t="s">
+      <c r="Q31" s="15" t="s">
         <v>71</v>
       </c>
       <c r="R31" s="4">
@@ -2580,43 +2581,43 @@
       </c>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="C32" s="22" t="s">
+    <row r="32" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="22">
-        <v>1</v>
-      </c>
-      <c r="E32" s="22" t="s">
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="31" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="31" t="s">
+      <c r="I32" s="30"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="31" t="s">
+      <c r="M32" s="30"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="32" t="s">
+      <c r="Q32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="R32" s="31"/>
-      <c r="S32" s="21"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="20"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -2651,7 +2652,7 @@
       </c>
       <c r="H34" s="41">
         <f>H35</f>
-        <v>110.66</v>
+        <v>110.74999999999999</v>
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="1"/>
@@ -2687,7 +2688,7 @@
       </c>
       <c r="H35" s="3">
         <f>SUM(H6:H33)</f>
-        <v>110.66</v>
+        <v>110.74999999999999</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>54</v>
@@ -2725,16 +2726,16 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="40"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="8"/>
       <c r="J36" s="1"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="40"/>
+      <c r="L36" s="39"/>
       <c r="M36" s="8"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="40"/>
+      <c r="Q36" s="39"/>
       <c r="R36" s="8"/>
       <c r="S36" s="1"/>
     </row>
